--- a/shablon.xlsx
+++ b/shablon.xlsx
@@ -2,14 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\PycharmProjects\menu_creation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,21 +24,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>ывпиываичсми</t>
-  </si>
-  <si>
-    <t>варпварва</t>
-  </si>
-  <si>
-    <t>ывипиыварп</t>
-  </si>
-  <si>
-    <t>чыапрварпвар</t>
-  </si>
-  <si>
-    <t>чаптиыварпвар</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>Школа</t>
+  </si>
+  <si>
+    <t>День</t>
+  </si>
+  <si>
+    <t>Прием пищи</t>
+  </si>
+  <si>
+    <t>Раздел</t>
+  </si>
+  <si>
+    <t>Блюдо</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>Калорийность</t>
+  </si>
+  <si>
+    <t>Белки</t>
+  </si>
+  <si>
+    <t>Жиры</t>
+  </si>
+  <si>
+    <t>Углеводы</t>
+  </si>
+  <si>
+    <t>Завтрак</t>
+  </si>
+  <si>
+    <t>гор.блюдо</t>
+  </si>
+  <si>
+    <t>гор.напиток</t>
+  </si>
+  <si>
+    <t>Завтрак 2</t>
+  </si>
+  <si>
+    <t>Обед</t>
+  </si>
+  <si>
+    <t>закуска</t>
+  </si>
+  <si>
+    <t>1 блюдо</t>
+  </si>
+  <si>
+    <t>2 блюдо</t>
+  </si>
+  <si>
+    <t>гарнир</t>
+  </si>
+  <si>
+    <t>сладкое</t>
+  </si>
+  <si>
+    <t>фрукты</t>
+  </si>
+  <si>
+    <t>хлеб черн.</t>
+  </si>
+  <si>
+    <t>Отд./корп</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>хлеб</t>
+  </si>
+  <si>
+    <t>хлеб бел.</t>
+  </si>
+  <si>
+    <t>№ рец.</t>
+  </si>
+  <si>
+    <t>Выход, г</t>
   </si>
 </sst>
 </file>
@@ -49,15 +123,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -65,12 +151,372 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -89,9 +535,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -129,12 +575,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -169,7 +615,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -201,7 +647,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -351,40 +797,317 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:A7"/>
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="41.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B1" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="40"/>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B3" s="13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>4</v>
       </c>
+      <c r="E3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="22"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="32"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="20"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/shablon.xlsx
+++ b/shablon.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Школа</t>
   </si>
@@ -56,52 +56,10 @@
     <t>Углеводы</t>
   </si>
   <si>
-    <t>Завтрак</t>
-  </si>
-  <si>
-    <t>гор.блюдо</t>
-  </si>
-  <si>
-    <t>гор.напиток</t>
-  </si>
-  <si>
-    <t>Завтрак 2</t>
-  </si>
-  <si>
-    <t>Обед</t>
-  </si>
-  <si>
-    <t>закуска</t>
-  </si>
-  <si>
-    <t>1 блюдо</t>
-  </si>
-  <si>
-    <t>2 блюдо</t>
-  </si>
-  <si>
-    <t>гарнир</t>
-  </si>
-  <si>
-    <t>сладкое</t>
-  </si>
-  <si>
-    <t>фрукты</t>
-  </si>
-  <si>
-    <t>хлеб черн.</t>
-  </si>
-  <si>
     <t>Отд./корп</t>
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>хлеб</t>
-  </si>
-  <si>
-    <t>хлеб бел.</t>
   </si>
   <si>
     <t>№ рец.</t>
@@ -123,7 +81,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,14 +94,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -193,60 +145,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -256,12 +154,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -274,8 +168,12 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -288,7 +186,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -303,220 +201,61 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -800,10 +539,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,287 +562,261 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="40"/>
+      <c r="B1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15"/>
       <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="24"/>
+        <v>10</v>
+      </c>
+      <c r="F1" s="3"/>
       <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="23"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="E3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="18"/>
+      <c r="C5" s="11"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="18"/>
+      <c r="C6" s="11"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
+      <c r="C7" s="11"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="11"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+      <c r="C9" s="11"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
       <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20"/>
+      <c r="C10" s="11"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="11"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="22"/>
+      <c r="C12" s="11"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="18"/>
+      <c r="C13" s="11"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="18"/>
+      <c r="C14" s="11"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="18"/>
+      <c r="C15" s="11"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="18"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="18"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="18"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="32"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="C16" s="11"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="11"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="11"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="11"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="11"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C21" s="11"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C22" s="11"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C23" s="11"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="11"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="11"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="11"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C27" s="11"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C28" s="11"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C29" s="11"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C30" s="11"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C31" s="11"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
